--- a/SAAISEM/build/web/exceles/Requerimiento.xlsx
+++ b/SAAISEM/build/web/exceles/Requerimiento.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="370">
   <si>
     <t>42064MC</t>
   </si>
@@ -1131,9 +1131,6 @@
   </si>
   <si>
     <t>1046A</t>
-  </si>
-  <si>
-    <t>1053A</t>
   </si>
 </sst>
 </file>
@@ -1211,8 +1208,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1236,15 +1235,17 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1544,10 +1545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1574,42 +1575,32 @@
         <v>369</v>
       </c>
       <c r="B2" s="5">
-        <v>233</v>
+        <v>2142</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
       </c>
       <c r="D2" s="6">
-        <v>300</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B3" s="5">
-        <v>252</v>
+        <v>1711</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="6">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
-      <c r="A4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1711</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
         <v>1000</v>
       </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4"/>
+      <c r="D4"/>
     </row>
     <row r="5" spans="1:4">
       <c r="C5"/>
@@ -1645,85 +1636,85 @@
     </row>
     <row r="13" spans="1:4">
       <c r="C13"/>
-      <c r="D13"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
       <c r="C14"/>
-      <c r="D14" s="2"/>
+      <c r="D14" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="C15"/>
-      <c r="D15" t="s">
-        <v>368</v>
-      </c>
+      <c r="D15"/>
     </row>
     <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="C16"/>
       <c r="D16"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+    <row r="17" spans="3:4">
       <c r="C17"/>
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="3:4">
       <c r="C18"/>
       <c r="D18"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="3:4">
       <c r="C19"/>
       <c r="D19"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="3:4">
       <c r="C20"/>
       <c r="D20"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="3:4">
       <c r="C21"/>
       <c r="D21"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="3:4">
       <c r="C22"/>
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="3:4">
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="3:4">
       <c r="C24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="3:4">
       <c r="C25"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="3:4">
       <c r="C26"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="3:4">
       <c r="C27"/>
       <c r="D27"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="3:4">
       <c r="C28"/>
       <c r="D28"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="3:4">
       <c r="C29"/>
       <c r="D29"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="3:4">
       <c r="C30"/>
       <c r="D30"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="3:4">
       <c r="C31"/>
       <c r="D31"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="3:4">
       <c r="C32"/>
       <c r="D32"/>
     </row>
@@ -2246,10 +2237,6 @@
     <row r="162" spans="3:4">
       <c r="C162"/>
       <c r="D162"/>
-    </row>
-    <row r="163" spans="3:4">
-      <c r="C163"/>
-      <c r="D163"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
